--- a/ballots/2013-09 DSTU/QA/FHIR DSTU Review Template - Lloyd.xlsx
+++ b/ballots/2013-09 DSTU/QA/FHIR DSTU Review Template - Lloyd.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="45" windowWidth="14310" windowHeight="6660" activeTab="2"/>
+    <workbookView xWindow="3405" yWindow="825" windowWidth="25740" windowHeight="14910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Reconciliation Peer Review" sheetId="2" r:id="rId2"/>
     <sheet name="Specification QA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>Reviewer Name</t>
   </si>
@@ -288,9 +288,6 @@
     <t>1.11.6.1.2.1</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Y (future)</t>
   </si>
   <si>
@@ -301,6 +298,39 @@
   </si>
   <si>
     <t>6.14.4</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Grahame</t>
+  </si>
+  <si>
+    <t>todo in San Antonio</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>done already. No change required</t>
+  </si>
+  <si>
+    <t>todo after San Antonio</t>
+  </si>
+  <si>
+    <t>The word system appears 31987 times. Lloyd can review any number that he wants and standardise, or we can defer  to the future</t>
+  </si>
+  <si>
+    <t>for San Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. we had to take this out for tooling reasons. </t>
+  </si>
+  <si>
+    <t>already handled above</t>
+  </si>
+  <si>
+    <t>done the note. Implementation collateral to follow after San Antonio</t>
   </si>
 </sst>
 </file>
@@ -789,7 +819,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
@@ -801,7 +831,8 @@
     <col min="2" max="2" width="8.7109375" style="4" customWidth="1"/>
     <col min="3" max="5" width="43.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="7" max="7" width="32" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -824,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -840,6 +871,9 @@
       <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -860,6 +894,9 @@
       <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -874,6 +911,9 @@
       <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -902,6 +942,9 @@
       <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -914,7 +957,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -928,7 +974,10 @@
         <v>37</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -941,6 +990,9 @@
       <c r="F9" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G9" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -952,6 +1004,9 @@
       <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -966,6 +1021,9 @@
       <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -977,6 +1035,9 @@
       <c r="F12" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G12" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -988,6 +1049,9 @@
       <c r="F13" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G13" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1002,6 +1066,9 @@
       <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -1014,7 +1081,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="210" x14ac:dyDescent="0.25">
@@ -1033,6 +1100,9 @@
       <c r="F16" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="G16" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1047,6 +1117,9 @@
       <c r="F17" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="G17" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1061,6 +1134,9 @@
       <c r="F18" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="G18" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1075,6 +1151,9 @@
       <c r="F19" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="G19" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1089,6 +1168,9 @@
       <c r="F20" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="G20" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -1100,6 +1182,9 @@
       <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="G21" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -1114,22 +1199,25 @@
       <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G22" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/ballots/2013-09 DSTU/QA/FHIR DSTU Review Template - Lloyd.xlsx
+++ b/ballots/2013-09 DSTU/QA/FHIR DSTU Review Template - Lloyd.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="825" windowWidth="25740" windowHeight="14910" activeTab="2"/>
+    <workbookView xWindow="3405" yWindow="825" windowWidth="25740" windowHeight="14910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Reconciliation Peer Review" sheetId="2" r:id="rId2"/>
     <sheet name="Specification QA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>Reviewer Name</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>done the note. Implementation collateral to follow after San Antonio</t>
+  </si>
+  <si>
+    <t>The ballot comment was misunderstood.  Conformance still needs to declare what search parameters will be supported.  However, Profile should be used to *define* search parameters - you want the search parameters to be able to be defined the same place you define the resource element or extension being searched on.</t>
   </si>
 </sst>
 </file>
@@ -782,13 +785,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +801,7 @@
     <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -807,6 +810,20 @@
       </c>
       <c r="C1" s="5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>207</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -818,11 +835,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
